--- a/数据.xlsx
+++ b/数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOGIC\userdata\teamwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOGIC\UserData\TeamWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5B0342-E9AB-458C-8F82-61D300948FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719794E6-6E8B-4C28-BC8B-EA420AACA120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3356" yWindow="2254" windowWidth="14124" windowHeight="12772" xr2:uid="{1D44275E-1893-43E5-94D9-25F9B57C0CED}"/>
+    <workbookView xWindow="17055" yWindow="1853" windowWidth="14124" windowHeight="12923" xr2:uid="{1D44275E-1893-43E5-94D9-25F9B57C0CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>网络类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,15 +114,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12min56s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Delta-Delta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12min44s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28min8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13min15s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD368B88-D887-4996-8528-4CEC3B456F2C}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -653,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -676,19 +684,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2">
-        <v>0.45169999999999999</v>
+        <v>0.44779999999999998</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1">
         <v>32</v>
@@ -699,21 +707,44 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>0.5131</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1">
         <v>29</v>
       </c>
       <c r="G9" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.48920000000000002</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1">
         <v>32</v>
       </c>
     </row>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOGIC\UserData\TeamWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719794E6-6E8B-4C28-BC8B-EA420AACA120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980AB479-1B13-4D0F-BB98-156235486196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17055" yWindow="1853" windowWidth="14124" windowHeight="12923" xr2:uid="{1D44275E-1893-43E5-94D9-25F9B57C0CED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
   <si>
     <t>网络类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,22 @@
   </si>
   <si>
     <t>13min15s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55min31s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogMelSpectrogram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panns cnn14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,6 +154,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,12 +182,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -177,14 +211,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD368B88-D887-4996-8528-4CEC3B456F2C}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A23" sqref="A23:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -515,7 +558,9 @@
     <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -549,10 +594,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
-        <v>0.52044999999999997</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -575,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>0.51875000000000004</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -598,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>0.48465999999999998</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -621,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>0.59830000000000005</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -644,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>0.52329999999999999</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -667,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>0.50341000000000002</v>
+        <v>0.503</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -690,7 +735,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2">
-        <v>0.44779999999999998</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
@@ -713,7 +758,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="2">
-        <v>0.5131</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -736,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>0.48920000000000002</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
@@ -746,6 +791,169 @@
       </c>
       <c r="G10" s="1">
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1">
+        <v>55</v>
+      </c>
+      <c r="G11" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.442</v>
       </c>
     </row>
   </sheetData>
